--- a/src/ontology/Ontorat proc/Skill_types.xlsx
+++ b/src/ontology/Ontorat proc/Skill_types.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yongqunh\GitHub\OccO\src\ontology\Ontobee proc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yongqunh\GitHub\OccO\src\ontology\Ontorat proc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A788BAFC-2184-4A52-86E4-E809A75926BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E35762E-7708-4C4E-A81B-A67AE281F00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2EF74A3-1F5B-4BD4-AEDE-0E261368F0CC}"/>
+    <workbookView xWindow="33510" yWindow="900" windowWidth="19455" windowHeight="13875" xr2:uid="{C2EF74A3-1F5B-4BD4-AEDE-0E261368F0CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill_Types" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="154">
   <si>
     <t>Skill Label</t>
   </si>
@@ -483,13 +483,25 @@
   </si>
   <si>
     <t>Sam Smith, Oliver He</t>
+  </si>
+  <si>
+    <t>OccO skill</t>
+  </si>
+  <si>
+    <t>OccO skill ID</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>OccO_00000003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,6 +513,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -843,23 +861,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D32972-013D-4CF3-A227-0DA47E803B22}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="61.42578125" customWidth="1"/>
-    <col min="5" max="5" width="77.7109375" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="61.42578125" customWidth="1"/>
+    <col min="7" max="7" width="77.7109375" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,19 +887,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -887,19 +913,25 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>146</v>
       </c>
-      <c r="F2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -907,19 +939,25 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>146</v>
       </c>
-      <c r="F3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -927,19 +965,25 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>146</v>
       </c>
-      <c r="F4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -947,19 +991,25 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -967,19 +1017,25 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>146</v>
       </c>
-      <c r="F6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -987,19 +1043,25 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1007,19 +1069,25 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1027,19 +1095,25 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="E9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1047,19 +1121,25 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>146</v>
       </c>
-      <c r="F10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1067,19 +1147,25 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>44</v>
       </c>
-      <c r="E11" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1087,19 +1173,25 @@
         <v>46</v>
       </c>
       <c r="C12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>48</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>146</v>
       </c>
-      <c r="F12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1107,19 +1199,25 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>52</v>
       </c>
-      <c r="E13" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1127,19 +1225,25 @@
         <v>54</v>
       </c>
       <c r="C14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" t="s">
         <v>55</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>56</v>
       </c>
-      <c r="E14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -1147,19 +1251,25 @@
         <v>58</v>
       </c>
       <c r="C15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" t="s">
         <v>59</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1167,19 +1277,25 @@
         <v>62</v>
       </c>
       <c r="C16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" t="s">
         <v>63</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>64</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>147</v>
       </c>
-      <c r="F16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -1187,19 +1303,25 @@
         <v>66</v>
       </c>
       <c r="C17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" t="s">
         <v>67</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>68</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>146</v>
       </c>
-      <c r="F17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -1207,19 +1329,25 @@
         <v>70</v>
       </c>
       <c r="C18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" t="s">
         <v>71</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>72</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>146</v>
       </c>
-      <c r="F18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -1227,19 +1355,25 @@
         <v>74</v>
       </c>
       <c r="C19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" t="s">
         <v>75</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>76</v>
       </c>
-      <c r="E19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -1247,19 +1381,25 @@
         <v>78</v>
       </c>
       <c r="C20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" t="s">
         <v>79</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>80</v>
       </c>
-      <c r="E20" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -1267,19 +1407,25 @@
         <v>82</v>
       </c>
       <c r="C21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" t="s">
         <v>83</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>84</v>
       </c>
-      <c r="E21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -1287,19 +1433,25 @@
         <v>86</v>
       </c>
       <c r="C22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" t="s">
         <v>87</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>88</v>
       </c>
-      <c r="E22" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -1307,19 +1459,25 @@
         <v>90</v>
       </c>
       <c r="C23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" t="s">
         <v>91</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>92</v>
       </c>
-      <c r="E23" t="s">
-        <v>145</v>
-      </c>
-      <c r="F23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -1327,19 +1485,25 @@
         <v>94</v>
       </c>
       <c r="C24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" t="s">
         <v>95</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>96</v>
       </c>
-      <c r="E24" t="s">
-        <v>145</v>
-      </c>
-      <c r="F24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -1347,19 +1511,25 @@
         <v>98</v>
       </c>
       <c r="C25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" t="s">
         <v>99</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>100</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>147</v>
       </c>
-      <c r="F25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -1367,19 +1537,25 @@
         <v>102</v>
       </c>
       <c r="C26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" t="s">
         <v>103</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>104</v>
       </c>
-      <c r="E26" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -1387,19 +1563,25 @@
         <v>106</v>
       </c>
       <c r="C27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" t="s">
         <v>107</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>108</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>147</v>
       </c>
-      <c r="F27" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -1407,19 +1589,25 @@
         <v>110</v>
       </c>
       <c r="C28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" t="s">
         <v>111</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>112</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>146</v>
       </c>
-      <c r="F28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>113</v>
       </c>
@@ -1427,19 +1615,25 @@
         <v>114</v>
       </c>
       <c r="C29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" t="s">
         <v>115</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>116</v>
       </c>
-      <c r="E29" t="s">
-        <v>145</v>
-      </c>
-      <c r="F29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -1447,19 +1641,25 @@
         <v>118</v>
       </c>
       <c r="C30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" t="s">
         <v>119</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>120</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>147</v>
       </c>
-      <c r="F30" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>121</v>
       </c>
@@ -1467,19 +1667,25 @@
         <v>122</v>
       </c>
       <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" t="s">
         <v>123</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>124</v>
       </c>
-      <c r="E31" t="s">
-        <v>145</v>
-      </c>
-      <c r="F31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -1487,19 +1693,25 @@
         <v>126</v>
       </c>
       <c r="C32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" t="s">
         <v>127</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>128</v>
       </c>
-      <c r="E32" t="s">
-        <v>145</v>
-      </c>
-      <c r="F32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>129</v>
       </c>
@@ -1507,19 +1719,25 @@
         <v>130</v>
       </c>
       <c r="C33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" t="s">
         <v>131</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>132</v>
       </c>
-      <c r="E33" t="s">
-        <v>145</v>
-      </c>
-      <c r="F33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>133</v>
       </c>
@@ -1527,19 +1745,25 @@
         <v>134</v>
       </c>
       <c r="C34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" t="s">
         <v>135</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>136</v>
       </c>
-      <c r="E34" t="s">
-        <v>145</v>
-      </c>
-      <c r="F34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>145</v>
+      </c>
+      <c r="H34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>137</v>
       </c>
@@ -1547,19 +1771,25 @@
         <v>138</v>
       </c>
       <c r="C35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" t="s">
         <v>139</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>140</v>
       </c>
-      <c r="E35" t="s">
-        <v>145</v>
-      </c>
-      <c r="F35" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>145</v>
+      </c>
+      <c r="H35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -1567,19 +1797,26 @@
         <v>142</v>
       </c>
       <c r="C36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" t="s">
         <v>143</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>144</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>147</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
         <v>149</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>